--- a/mosip_master/xlsx/app_role_priority.xlsx
+++ b/mosip_master/xlsx/app_role_priority.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="18">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t xml:space="preserve">onboard_auth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ara</t>
   </si>
 </sst>
 </file>
@@ -196,15 +202,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.43"/>
   </cols>
   <sheetData>
@@ -488,6 +496,549 @@
         <v>9</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
